--- a/data/config/attributes.xlsx
+++ b/data/config/attributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valdemarlyngdal/Desktop/product_manager/data/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5748426E-699F-154E-8ED0-19FD39267F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB0545-665F-4143-B20B-4C39972D0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="-20600" windowWidth="34200" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6320" windowWidth="16360" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Same_Input_Attributes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>attribute_name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>guarantee</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
     <t>facet_product_type</t>
   </si>
   <si>
@@ -115,6 +112,51 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Wood veneer MDF panel</t>
+  </si>
+  <si>
+    <t>contains_wood</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>wood_licence</t>
+  </si>
+  <si>
+    <t>FSC-C173830</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>Batten panel</t>
+  </si>
+  <si>
+    <t>Medium Density Fiberboard (MDF)</t>
+  </si>
+  <si>
+    <t>batten_material</t>
+  </si>
+  <si>
+    <t>manufacturing_country</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>damp_rooms</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3D</t>
   </si>
 </sst>
 </file>
@@ -494,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -531,46 +573,79 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +658,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,21 +706,59 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.2">
